--- a/parcellations/social-space_rois.xlsx
+++ b/parcellations/social-space_rois.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matty_gee/Dropbox/Projects/CUD/Code/fMRI/ROIs/create_rois/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matty_gee/Dropbox/Projects/fmri_tools/parcellations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="460" windowWidth="15540" windowHeight="19200" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="15340" yWindow="460" windowWidth="15540" windowHeight="19200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
